--- a/GiaoDichKhongThamLam.xlsx
+++ b/GiaoDichKhongThamLam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
   <si>
     <t>Người thực hiện:</t>
   </si>
@@ -343,13 +343,22 @@
   </si>
   <si>
     <t>Với cách chơi này thì nếu mất thì chỉ mất 5$ vốn ban đầu, còn nếu được thì sẽ được theo lãi kép đạt được</t>
+  </si>
+  <si>
+    <t>Xu hướng chính: Tăng</t>
+  </si>
+  <si>
+    <t>Canh BUY</t>
+  </si>
+  <si>
+    <t>Lĩnh ngộ tinh túy thị trường</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +401,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -428,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -440,6 +457,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,7 +784,7 @@
   <dimension ref="A1:K295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L91" sqref="L91"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +955,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -951,7 +969,9 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="11" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1374,6 +1394,14 @@
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
